--- a/Equipe201.xlsx
+++ b/Equipe201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25917"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11503445-14EC-4D73-ADF2-5DD269D2548A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1450" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3347A392-F66C-4D34-A50B-8E286FCE64B5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="186">
   <si>
     <t>Fonct.</t>
   </si>
@@ -95,6 +95,9 @@
     <t>Correcteur</t>
   </si>
   <si>
+    <t>AS</t>
+  </si>
+  <si>
     <t>1.1 Utilisation des Cadriciels</t>
   </si>
   <si>
@@ -105,6 +108,10 @@
 -0.05 image.service sans responsabilité  (vide) dans le serveur </t>
   </si>
   <si>
+    <t>PlayAreaComponent a trop de responsabilités.
+OK pour le reste.</t>
+  </si>
+  <si>
     <t>1.2 Arborescence</t>
   </si>
   <si>
@@ -116,6 +123,12 @@
 Sinon Bon travail!</t>
   </si>
   <si>
+    <t>les classes et les services devraientt etre dans des folders pour rendre l'arborescence uniforme et plus cohérente.
+– server: socketManager, local.games.service, common: imageToSendToServer, mouseButton  ne respectent  pas kebab-case. 
+les fichiers constantes ddu client et serveur doivent etre mis dans des folders.
+OK pour le reste.</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -132,6 +145,9 @@
   </si>
   <si>
     <t>Votre mouseDetectionService s'occupe de jouer le son, d'afficher les messages et d'incrémenter le nombre de différences. Elle devrait avoir une responsabilité</t>
+  </si>
+  <si>
+    <t>Bon travail</t>
   </si>
   <si>
     <t>2.2 Attributs</t>
@@ -142,7 +158,7 @@
 La classe ne comporte pas d'attribut utilisé seulement dans les tests.</t>
   </si>
   <si>
-    <t>Bon travail</t>
+    <t>GameFormDescription, ImageSize, RecordTime devrait être un interface</t>
   </si>
   <si>
     <t>2.3 Accessibilité</t>
@@ -156,6 +172,12 @@
 Dans la majorité des cas, vous ne gérez pas l'accesibilité de vos membres.</t>
   </si>
   <si>
+    <t>localGameService validateName devrait être private
+addTimeToGame devrait être private
+writeInGameFile devrait être private
+Vous ne gérez pas l'accesibilité...</t>
+  </si>
+  <si>
     <t>2.4 Couplage</t>
   </si>
   <si>
@@ -166,16 +188,29 @@
     <t>Votre PlayAreaComponent est fortement couplé. Vous devriez réduire le couplage de cette classe.</t>
   </si>
   <si>
+    <t>CanvasDrawingComponent est trop couplé
+ImageDiffereceComponent est trop couplé
+PlayAreaComponent trop couplé
+PopDialogWaitingForPlayer trop couplé</t>
+  </si>
+  <si>
     <t>2.5 Valeur par défaut</t>
   </si>
   <si>
     <t>La classe initialise tous ses attributs de la même façon. Soit à la définition, soit dans le constructeur.</t>
   </si>
   <si>
+    <t>Vous avez plusieurs constructeurs vide. Vous pouvez simplement les retirer
+Parfois vous intialisez avant le constructeur, parfois dans le constructeur</t>
+  </si>
+  <si>
     <t>3. Fonctions et méthodes</t>
   </si>
   <si>
     <t xml:space="preserve">MF </t>
+  </si>
+  <si>
+    <t>MF</t>
   </si>
   <si>
     <t>3.1 Utilité</t>
@@ -191,6 +226,11 @@
                                configureGamePageSocketFeatures</t>
   </si>
   <si>
+    <t xml:space="preserve"> game-creation-page ( NgOninit trop longue)
+La fonction getNumberOfDifference  n'a pas besoin d'initialiser l'attribut numberOfDifference plutot retourner la valeur  
+</t>
+  </si>
+  <si>
     <t>3.2 Paramètres</t>
   </si>
   <si>
@@ -201,6 +241,10 @@
     <t>Les methodes   sendDifferentImagesInformationToServerForGameCreation et                                                                                                        setupDataInService  ont 4 paramètres et plus , un objet pourrait reduire celà</t>
   </si>
   <si>
+    <t>isPixelInCircle
+addPixelsArroundCurrentColumnToVisit</t>
+  </si>
+  <si>
     <t>4. Exceptions</t>
   </si>
   <si>
@@ -219,6 +263,9 @@
     <t>Le code asynchrone (Promise, Observable, Event) est géré adéquatement.</t>
   </si>
   <si>
+    <t>waitForImagToLoad mauvaise utilisation de reject</t>
+  </si>
+  <si>
     <t>4.3 Message d'erreur</t>
   </si>
   <si>
@@ -226,9 +273,6 @@
   </si>
   <si>
     <t>5. Variables et constantes</t>
-  </si>
-  <si>
-    <t>AS</t>
   </si>
   <si>
     <t>5.1 Groupement</t>
@@ -241,16 +285,28 @@
 -0.1 Groupement des constantes pas très logique , certaine constantes qui sont utilisé uniquement dans le client sont mises dans le folder common. </t>
   </si>
   <si>
+    <t xml:space="preserve"> Client: ListGameFormComponent a des proprietes qui doivent etres des contantes regroupé et nommé avec le bon format. 
+Vous avez des noms d'event sockets et des messages trop longs qui doivent etre idealement mises dans des constantes.
+Certaines constantes du serveur sont pas dans le fichier server.const.ts.
+OK pour le reste</t>
+  </si>
+  <si>
     <t>5.2 Environnement</t>
   </si>
   <si>
     <t>Des variables d'environnements sont utilisées lorsque possible.</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>5.3 Contexte d'utilisation</t>
   </si>
   <si>
     <t>La constante est utilisé dans un contexte lié à la logique d'affaire. (Exemple d'erreur: const DEUX = 2,  bonne utilisation: WAIT_TIME = 5000 )</t>
+  </si>
+  <si>
+    <t>STEP? OK pour le reste</t>
   </si>
   <si>
     <t>6. Expressions booléennes</t>
@@ -287,6 +343,11 @@
   <si>
     <t>L'expression booléenne est simple.
 L'expression booléenne utilise un ou des prédicats pour simplifier une condition complexe.</t>
+  </si>
+  <si>
+    <t>verifyTwoImagesUploaded devrait juste retourner votre prédicat. De plus trop complexe
+image-difference-component loaded return true return false
+isgameFinishedMulti prédicat trop compliqué</t>
   </si>
   <si>
     <t>7. Qualité générale</t>
@@ -306,6 +367,13 @@
 -0.1: image-difference.component.ts lignes 28 et 31: unwraped
 -0.1: images.controller.ts lignes 21 et 22: FilePatth
 -0.1: time.service.ts ligne 39: Showable</t>
+  </si>
+  <si>
+    <t>-0.1: time.service.ts ligne 39: Showable
+-0.1: app\services\chronometer.service.ts: Chrono
+-0.1: src\app\services\verify-image.service.ts: Contraints
+-0.1: app\services\difference-detector.service.ts: Datas, Cloumn, Arround
+-0.1: common\const.ts: Commentaires en francais, d'autres en anglais.</t>
   </si>
   <si>
     <t>7.2 Commentaire</t>
@@ -333,9 +401,6 @@
     <t>Le code utilise des enum lorsque c'est pertinent.</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>7.4 Classe et interface</t>
   </si>
   <si>
@@ -348,10 +413,18 @@
                                                   VeriyImageSerice L73                                               </t>
   </si>
   <si>
+    <t xml:space="preserve">VeriyImageSerice L73   </t>
+  </si>
+  <si>
     <t>7.5 Duplication</t>
   </si>
   <si>
     <t>Il n'y a pas de duplication de code.</t>
+  </si>
+  <si>
+    <t>-0.1 client/src/app/components/canvas-drawing/canvas-drawing.component.ts:
+x: this.drawingHandlerService.getCoordinateX(mouseEvent[0],canvasReact),
+          y: this.drawingHandlerService.getCoordinateY(mouseEvent[0],canvasReact)</t>
   </si>
   <si>
     <t>7.6 ESLint</t>
@@ -363,6 +436,12 @@
   <si>
     <t xml:space="preserve">-0.1: list-images-rendered.service.ts Ligne 16. (Il faut déboguer pour trouver le type de la var et remplacer le any). Le disable de la ligne 21 et non nécessaire (pas pénalisé)
 La commande Lint ne roule ni sur le client ni sur le serveur </t>
+  </si>
+  <si>
+    <t>Eslint: Client échoue avec 1500 erreurs.
+Corrigez les erreurs lint par npm run lint -- --fix
+Le nombre d'erreur descend à 500.
+Pour le serveur: il y a 190 après le fix.</t>
   </si>
   <si>
     <t>7.7 Complexité</t>
@@ -376,6 +455,37 @@
  increaseTime</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>loaded(),checkIfThereAreSavedDrawnLines,
+checkIfThereAreSavedDeletedDrawnLines
+ if else inutile
+socketService.on('Valid click' , getNameImageUpload dans upload-file-service.. trop de if else</t>
+    </r>
+  </si>
+  <si>
     <t>7.7 Nomenclature des variables, classes et méthodes</t>
   </si>
   <si>
@@ -387,6 +497,11 @@
     <t>imagesdata                                      gamelist                                             offSet ?                                             plusieurs fonctions et variables ont des noms trop longs</t>
   </si>
   <si>
+    <t>imagesdata
+gamelist
+plusieurs fonctions et variables ont des noms trop longs</t>
+  </si>
+  <si>
     <t>7.8 Performance</t>
   </si>
   <si>
@@ -456,9 +571,6 @@
   </si>
   <si>
     <t>1.1 Vue Initiale</t>
-  </si>
-  <si>
-    <t>MF</t>
   </si>
   <si>
     <t>La redirection ne se fait pas automatiquement, lignes 18 et 28 importantes mais pas testées</t>
@@ -526,19 +638,53 @@
     <t>2.1 Vue de création de jeu - modification de l'avant-plan</t>
   </si>
   <si>
+    <t>Problème avec la redirection. Ne se fait pas automatiquement
+Il est pas possible d'intervertir l'avant-plan des deux images.
+On devrait pas être capable de créer un jeu sans nom
+OK pour le reste.
+Test de MergeImageCanvas qui fail. Lignes pas couvertes dans GameCreationPage</t>
+  </si>
+  <si>
     <t>2.2 Créer et Joindre une partie un contre un</t>
   </si>
   <si>
+    <t>KARIM</t>
+  </si>
+  <si>
+    <t>OK
+Ok pour les tests</t>
+  </si>
+  <si>
     <t>2.3 Mode Classique en un contre un</t>
   </si>
   <si>
+    <t>OK
+FormService à un test qui échoue et manque de couverture</t>
+  </si>
+  <si>
     <t>2.4 Vue de jeu eu un contre un</t>
   </si>
   <si>
+    <t>MIKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vous ne testez pas les methodes qui updatent le nombre de differences et get les images du jeu dans game-page </t>
+  </si>
+  <si>
     <t>2.5 Vue d'Administration - suppression de jeu</t>
   </si>
   <si>
+    <t>Supprimer un jeu ne devrait pas affecter  une partie en cours 
+OK pour le reste.
+Test qui fail pour form.service</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.6 Messages de partie (local) </t>
+  </si>
+  <si>
+    <t>OK
+Vous avez 2 tests qui ne vérifient rien (toBeTruthy and toHaveBeenCalled pas vraiment call) du côté client
+SocketManagerService (serveur), les tests ne devraient pas utiliser de setTimeout</t>
   </si>
   <si>
     <t>Erreur de build  / déploiement erroné</t>
@@ -575,7 +721,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -697,6 +843,11 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1522,7 +1673,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1979,9 +2130,6 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2150,6 +2298,111 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2174,105 +2427,9 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2308,13 +2465,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
-    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
-    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2763,15 +2920,15 @@
       </c>
       <c r="B5" s="113">
         <f>(Fonctionnalités!E27)</f>
-        <v>0</v>
+        <v>0.76769999999999983</v>
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
-        <v>0</v>
+        <v>0.69050000000000011</v>
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.73681999999999992</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -2779,7 +2936,7 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
+        <v>18.420499999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2835,8 +2992,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2855,36 +3012,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="218" t="s">
+      <c r="A4" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218"/>
+      <c r="B4" s="252"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="252"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -2904,36 +3061,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="235" t="s">
+      <c r="A6" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="256" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="237" t="s">
+      <c r="C6" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="238"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="239" t="s">
+      <c r="D6" s="247"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="248" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="240"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="219" t="s">
+      <c r="G6" s="249"/>
+      <c r="H6" s="250"/>
+      <c r="I6" s="253" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="220"/>
-      <c r="K6" s="221"/>
+      <c r="J6" s="254"/>
+      <c r="K6" s="255"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="233"/>
-      <c r="O6" s="234"/>
-      <c r="P6" s="234"/>
+      <c r="N6" s="242"/>
+      <c r="O6" s="243"/>
+      <c r="P6" s="243"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="236"/>
-      <c r="B7" s="223"/>
+      <c r="A7" s="245"/>
+      <c r="B7" s="257"/>
       <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
@@ -2969,24 +3126,28 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="232" t="s">
+      <c r="A8" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="232"/>
-      <c r="C8" s="225" t="s">
+      <c r="B8" s="226"/>
+      <c r="C8" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="226"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="225" t="s">
+      <c r="D8" s="220"/>
+      <c r="E8" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="226"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="225" t="s">
+      <c r="G8" s="220"/>
+      <c r="H8" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="226"/>
+      <c r="J8" s="220"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2997,10 +3158,10 @@
     </row>
     <row r="9" spans="1:17" ht="76.5">
       <c r="A9" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="100">
         <v>0.95</v>
@@ -3009,13 +3170,17 @@
         <v>6</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="102"/>
+        <v>21</v>
+      </c>
+      <c r="F9" s="102">
+        <v>0.95</v>
+      </c>
       <c r="G9" s="99">
         <v>6</v>
       </c>
-      <c r="H9" s="103"/>
+      <c r="H9" s="103" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="104"/>
       <c r="J9" s="105">
         <v>6</v>
@@ -3028,12 +3193,12 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="60.75">
+    <row r="10" spans="1:17" ht="351">
       <c r="A10" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="100">
         <v>0.95</v>
@@ -3042,13 +3207,17 @@
         <v>2</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="102"/>
+        <v>25</v>
+      </c>
+      <c r="F10" s="102">
+        <v>0.6</v>
+      </c>
       <c r="G10" s="99">
         <v>2</v>
       </c>
-      <c r="H10" s="103"/>
+      <c r="H10" s="103" t="s">
+        <v>26</v>
+      </c>
       <c r="I10" s="104"/>
       <c r="J10" s="105">
         <v>2</v>
@@ -3062,10 +3231,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="227" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="228"/>
+      <c r="A11" s="221" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="222"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>7.6</v>
@@ -3077,7 +3246,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="50">
         <f>SUMPRODUCT(F6:F10,G6:G10)</f>
-        <v>0</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="G11" s="51">
         <f>SUM(G6:G10)</f>
@@ -3101,26 +3270,28 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="232" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="232"/>
-      <c r="C12" s="225" t="s">
+      <c r="A12" s="226" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="226"/>
+      <c r="C12" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="226"/>
+      <c r="D12" s="220"/>
       <c r="E12" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="225" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="226"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="225" t="s">
+      <c r="G12" s="220"/>
+      <c r="H12" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="226"/>
+      <c r="J12" s="220"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3131,10 +3302,10 @@
     </row>
     <row r="13" spans="1:17" ht="91.5">
       <c r="A13" s="29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="79">
         <v>0.8</v>
@@ -3143,14 +3314,18 @@
         <v>3</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="89"/>
+        <v>32</v>
+      </c>
+      <c r="F13" s="89">
+        <v>1</v>
+      </c>
       <c r="G13" s="90">
         <f>D13</f>
         <v>3</v>
       </c>
-      <c r="H13" s="91"/>
+      <c r="H13" s="91" t="s">
+        <v>33</v>
+      </c>
       <c r="I13" s="92"/>
       <c r="J13" s="93">
         <f>G13</f>
@@ -3160,12 +3335,12 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:17" ht="45.75">
+    <row r="14" spans="1:17" ht="60.75">
       <c r="A14" s="23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" s="83">
         <v>1</v>
@@ -3174,14 +3349,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="F14" s="86">
+        <v>0.8</v>
+      </c>
       <c r="G14" s="90">
         <f t="shared" ref="G14:G17" si="0">D14</f>
         <v>2</v>
       </c>
-      <c r="H14" s="88"/>
+      <c r="H14" s="88" t="s">
+        <v>36</v>
+      </c>
       <c r="I14" s="76"/>
       <c r="J14" s="93">
         <f t="shared" ref="J14:J17" si="1">G14</f>
@@ -3191,12 +3370,12 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:17" ht="121.5">
+    <row r="15" spans="1:17" ht="137.25">
       <c r="A15" s="23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" s="83">
         <v>0.25</v>
@@ -3205,14 +3384,18 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="86"/>
+        <v>39</v>
+      </c>
+      <c r="F15" s="86">
+        <v>0</v>
+      </c>
       <c r="G15" s="90">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H15" s="88"/>
+      <c r="H15" s="88" t="s">
+        <v>40</v>
+      </c>
       <c r="I15" s="76"/>
       <c r="J15" s="93">
         <f t="shared" si="1"/>
@@ -3222,12 +3405,12 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="60.75">
+    <row r="16" spans="1:17" ht="121.5">
       <c r="A16" s="23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C16" s="83">
         <v>0.9</v>
@@ -3236,14 +3419,18 @@
         <v>4</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="86"/>
+        <v>43</v>
+      </c>
+      <c r="F16" s="86">
+        <v>0.25</v>
+      </c>
       <c r="G16" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H16" s="88"/>
+      <c r="H16" s="88" t="s">
+        <v>44</v>
+      </c>
       <c r="I16" s="76"/>
       <c r="J16" s="93">
         <f t="shared" si="1"/>
@@ -3253,12 +3440,12 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:17" ht="30.75">
+    <row r="17" spans="1:17" ht="121.5">
       <c r="A17" s="23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C17" s="83">
         <v>1</v>
@@ -3267,14 +3454,18 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="F17" s="86">
+        <v>0.25</v>
+      </c>
       <c r="G17" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H17" s="88"/>
+      <c r="H17" s="88" t="s">
+        <v>47</v>
+      </c>
       <c r="I17" s="76"/>
       <c r="J17" s="93">
         <f t="shared" si="1"/>
@@ -3285,10 +3476,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="227" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="228"/>
+      <c r="A18" s="221" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="222"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>12.5</v>
@@ -3300,7 +3491,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50">
         <f>SUMPRODUCT(F13:F17,G13:G17)</f>
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="G18" s="51">
         <f>SUM(G13:G17)</f>
@@ -3324,36 +3515,38 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="224" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="224"/>
-      <c r="C19" s="225" t="s">
+      <c r="A19" s="258" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="258"/>
+      <c r="C19" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="226"/>
+      <c r="D19" s="220"/>
       <c r="E19" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="225" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="226"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="225" t="s">
+      <c r="G19" s="220"/>
+      <c r="H19" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="226"/>
+      <c r="J19" s="220"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="229.5">
       <c r="A20" s="23" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C20" s="83">
         <v>0.5</v>
@@ -3362,13 +3555,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="86"/>
+        <v>53</v>
+      </c>
+      <c r="F20" s="86">
+        <v>0.7</v>
+      </c>
       <c r="G20" s="87">
         <v>3</v>
       </c>
-      <c r="H20" s="88"/>
+      <c r="H20" s="88" t="s">
+        <v>54</v>
+      </c>
       <c r="I20" s="76"/>
       <c r="J20" s="77">
         <v>3</v>
@@ -3379,10 +3576,10 @@
     </row>
     <row r="21" spans="1:17" ht="106.5">
       <c r="A21" s="23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C21" s="83">
         <v>0.7</v>
@@ -3391,13 +3588,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="86"/>
+        <v>57</v>
+      </c>
+      <c r="F21" s="86">
+        <v>0.7</v>
+      </c>
       <c r="G21" s="87">
         <v>3</v>
       </c>
-      <c r="H21" s="88"/>
+      <c r="H21" s="88" t="s">
+        <v>58</v>
+      </c>
       <c r="I21" s="76"/>
       <c r="J21" s="77">
         <v>3</v>
@@ -3407,10 +3608,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="229" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="230"/>
+      <c r="A22" s="259" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="241"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>3.5999999999999996</v>
@@ -3422,7 +3623,7 @@
       <c r="E22" s="59"/>
       <c r="F22" s="60">
         <f>SUMPRODUCT(F20:F21,G20:G21)</f>
-        <v>0</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="G22" s="61">
         <f>SUM(G20:G21)</f>
@@ -3443,35 +3644,37 @@
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="45" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B23" s="45"/>
-      <c r="C23" s="225" t="s">
+      <c r="C23" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="226"/>
+      <c r="D23" s="220"/>
       <c r="E23" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="225" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="226"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="225" t="s">
+      <c r="G23" s="220"/>
+      <c r="H23" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="226"/>
+      <c r="J23" s="220"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:17" ht="76.5">
       <c r="A24" s="42" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C24" s="97">
         <v>1</v>
@@ -3480,13 +3683,17 @@
         <v>2</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="82"/>
+        <v>62</v>
+      </c>
+      <c r="F24" s="82">
+        <v>1</v>
+      </c>
       <c r="G24" s="27">
         <v>2</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="I24" s="73"/>
       <c r="J24" s="74">
         <v>2</v>
@@ -3495,12 +3702,12 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" ht="45.75">
       <c r="A25" s="23" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C25" s="83">
         <v>1</v>
@@ -3509,13 +3716,17 @@
         <v>1</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="F25" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G25" s="87">
         <v>1</v>
       </c>
-      <c r="H25" s="88"/>
+      <c r="H25" s="88" t="s">
+        <v>65</v>
+      </c>
       <c r="I25" s="76"/>
       <c r="J25" s="77">
         <v>1</v>
@@ -3526,10 +3737,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
@@ -3538,13 +3749,17 @@
         <v>1</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="F26" s="86">
+        <v>1</v>
+      </c>
       <c r="G26" s="87">
         <v>1</v>
       </c>
-      <c r="H26" s="88"/>
+      <c r="H26" s="88" t="s">
+        <v>33</v>
+      </c>
       <c r="I26" s="76"/>
       <c r="J26" s="77">
         <v>1</v>
@@ -3554,10 +3769,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="16.5">
-      <c r="A27" s="231" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="230"/>
+      <c r="A27" s="240" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="241"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>4</v>
@@ -3567,11 +3782,11 @@
         <v>4</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" s="60">
         <f>SUMPRODUCT(F24:F26,G24:G26)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G27" s="61">
         <f>SUM(G24:G26)</f>
@@ -3591,36 +3806,36 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="224" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="224"/>
-      <c r="C28" s="225" t="s">
+      <c r="A28" s="258" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="258"/>
+      <c r="C28" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="226"/>
+      <c r="D28" s="220"/>
       <c r="E28" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="225" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="226"/>
+      <c r="G28" s="220"/>
       <c r="H28" s="66"/>
-      <c r="I28" s="225" t="s">
+      <c r="I28" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="226"/>
+      <c r="J28" s="220"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="137.25">
+    <row r="29" spans="1:17" ht="305.25">
       <c r="A29" s="31" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C29" s="79">
         <v>0.8</v>
@@ -3629,14 +3844,18 @@
         <v>2</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="89"/>
+        <v>71</v>
+      </c>
+      <c r="F29" s="89">
+        <v>0.5</v>
+      </c>
       <c r="G29" s="90">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="H29" s="95"/>
+      <c r="H29" s="95" t="s">
+        <v>72</v>
+      </c>
       <c r="I29" s="92"/>
       <c r="J29" s="93">
         <f>D29</f>
@@ -3648,10 +3867,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C30" s="83">
         <v>1</v>
@@ -3660,12 +3879,16 @@
         <v>2</v>
       </c>
       <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="F30" s="86">
+        <v>1</v>
+      </c>
       <c r="G30" s="90">
         <f t="shared" ref="G30:G31" si="2">D30</f>
         <v>2</v>
       </c>
-      <c r="H30" s="96"/>
+      <c r="H30" s="96" t="s">
+        <v>75</v>
+      </c>
       <c r="I30" s="76"/>
       <c r="J30" s="93">
         <f t="shared" ref="J30:J31" si="3">D30</f>
@@ -3677,10 +3900,10 @@
     </row>
     <row r="31" spans="1:17" ht="30.75">
       <c r="A31" s="24" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C31" s="83">
         <v>1</v>
@@ -3689,12 +3912,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
+      <c r="F31" s="86">
+        <v>0.95</v>
+      </c>
       <c r="G31" s="90">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H31" s="96"/>
+      <c r="H31" s="96" t="s">
+        <v>78</v>
+      </c>
       <c r="I31" s="76"/>
       <c r="J31" s="93">
         <f t="shared" si="3"/>
@@ -3705,10 +3932,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="227" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="228"/>
+      <c r="A32" s="221" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="222"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>5.6</v>
@@ -3720,7 +3947,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="50">
         <f>SUMPRODUCT(F29:F31,G29:G31)</f>
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G32" s="51">
         <f>SUM(G29:G31)</f>
@@ -3740,22 +3967,24 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="232" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="232"/>
-      <c r="C33" s="225" t="s">
+      <c r="A33" s="226" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="226"/>
+      <c r="C33" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="226"/>
+      <c r="D33" s="220"/>
       <c r="E33" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="225" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="226"/>
-      <c r="H33" s="46"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="46" t="s">
+        <v>80</v>
+      </c>
       <c r="I33" s="68" t="s">
         <v>17</v>
       </c>
@@ -3766,10 +3995,10 @@
     </row>
     <row r="34" spans="1:13" ht="30.75">
       <c r="A34" s="29" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C34" s="79">
         <v>1</v>
@@ -3778,13 +4007,17 @@
         <v>2</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="89"/>
+        <v>33</v>
+      </c>
+      <c r="F34" s="89">
+        <v>1</v>
+      </c>
       <c r="G34" s="90">
         <v>2</v>
       </c>
-      <c r="H34" s="91"/>
+      <c r="H34" s="91" t="s">
+        <v>75</v>
+      </c>
       <c r="I34" s="92"/>
       <c r="J34" s="93">
         <v>2</v>
@@ -3795,10 +4028,10 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -3807,13 +4040,17 @@
         <v>2</v>
       </c>
       <c r="E35" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="F35" s="86">
+        <v>1</v>
+      </c>
       <c r="G35" s="87">
         <v>2</v>
       </c>
-      <c r="H35" s="88"/>
+      <c r="H35" s="88" t="s">
+        <v>75</v>
+      </c>
       <c r="I35" s="76"/>
       <c r="J35" s="77">
         <v>2</v>
@@ -3822,12 +4059,12 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="152.25">
+    <row r="36" spans="1:13" ht="137.25">
       <c r="A36" s="23" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C36" s="83">
         <v>0.75</v>
@@ -3836,13 +4073,17 @@
         <v>3</v>
       </c>
       <c r="E36" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="86"/>
+        <v>87</v>
+      </c>
+      <c r="F36" s="86">
+        <v>1</v>
+      </c>
       <c r="G36" s="87">
         <v>3</v>
       </c>
-      <c r="H36" s="88"/>
+      <c r="H36" s="88" t="s">
+        <v>33</v>
+      </c>
       <c r="I36" s="76"/>
       <c r="J36" s="77">
         <v>3</v>
@@ -3851,12 +4092,12 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" ht="45.75">
+    <row r="37" spans="1:13" ht="213">
       <c r="A37" s="23" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C37" s="83">
         <v>1</v>
@@ -3865,13 +4106,17 @@
         <v>3</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="F37" s="86">
+        <v>0.25</v>
+      </c>
       <c r="G37" s="87">
         <v>3</v>
       </c>
-      <c r="H37" s="88"/>
+      <c r="H37" s="88" t="s">
+        <v>90</v>
+      </c>
       <c r="I37" s="76"/>
       <c r="J37" s="77">
         <v>3</v>
@@ -3881,10 +4126,10 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="227" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="228"/>
+      <c r="A38" s="221" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="222"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>9.25</v>
@@ -3896,7 +4141,7 @@
       <c r="E38" s="49"/>
       <c r="F38" s="70">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="G38" s="51">
         <f>SUM(G34:G37)</f>
@@ -3917,35 +4162,35 @@
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="225" t="s">
+      <c r="C39" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="226"/>
+      <c r="D39" s="220"/>
       <c r="E39" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="225" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="226"/>
+      <c r="G39" s="220"/>
       <c r="H39" s="46"/>
-      <c r="I39" s="225" t="s">
+      <c r="I39" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="226"/>
+      <c r="J39" s="220"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" ht="152.25">
+    <row r="40" spans="1:13" ht="290.25">
       <c r="A40" s="23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C40" s="83">
         <v>0.6</v>
@@ -3953,15 +4198,19 @@
       <c r="D40" s="84">
         <v>2</v>
       </c>
-      <c r="E40" s="214" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="86"/>
+      <c r="E40" s="213" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G40" s="87">
         <f>D40</f>
         <v>2</v>
       </c>
-      <c r="H40" s="88"/>
+      <c r="H40" s="88" t="s">
+        <v>96</v>
+      </c>
       <c r="I40" s="76"/>
       <c r="J40" s="77">
         <f>D40</f>
@@ -3973,10 +4222,10 @@
     </row>
     <row r="41" spans="1:13" ht="366">
       <c r="A41" s="23" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C41" s="83">
         <v>0.2</v>
@@ -3985,14 +4234,18 @@
         <v>2</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="86"/>
+        <v>99</v>
+      </c>
+      <c r="F41" s="86">
+        <v>1</v>
+      </c>
       <c r="G41" s="87">
         <f t="shared" ref="G41:G48" si="4">D41</f>
         <v>2</v>
       </c>
-      <c r="H41" s="88"/>
+      <c r="H41" s="88" t="s">
+        <v>33</v>
+      </c>
       <c r="I41" s="76"/>
       <c r="J41" s="77">
         <f t="shared" ref="J41:J48" si="5">D41</f>
@@ -4004,10 +4257,10 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="23" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C42" s="83">
         <v>1</v>
@@ -4016,9 +4269,11 @@
         <v>2</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" s="86"/>
+        <v>75</v>
+      </c>
+      <c r="F42" s="86">
+        <v>1</v>
+      </c>
       <c r="G42" s="87">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4034,10 +4289,10 @@
     </row>
     <row r="43" spans="1:13" ht="137.25">
       <c r="A43" s="23" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C43" s="83">
         <v>0.3</v>
@@ -4046,14 +4301,18 @@
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="86"/>
+        <v>104</v>
+      </c>
+      <c r="F43" s="86">
+        <v>0.8</v>
+      </c>
       <c r="G43" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H43" s="88"/>
+      <c r="H43" s="88" t="s">
+        <v>105</v>
+      </c>
       <c r="I43" s="76"/>
       <c r="J43" s="77">
         <f t="shared" si="5"/>
@@ -4063,12 +4322,12 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" ht="229.5">
       <c r="A44" s="23" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C44" s="83">
         <v>1</v>
@@ -4077,14 +4336,18 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="F44" s="86">
+        <v>0.9</v>
+      </c>
       <c r="G44" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H44" s="88"/>
+      <c r="H44" s="88" t="s">
+        <v>108</v>
+      </c>
       <c r="I44" s="76"/>
       <c r="J44" s="77">
         <f t="shared" si="5"/>
@@ -4096,10 +4359,10 @@
     </row>
     <row r="45" spans="1:13" ht="152.25">
       <c r="A45" s="23" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C45" s="83">
         <v>0</v>
@@ -4108,14 +4371,18 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="86"/>
+        <v>111</v>
+      </c>
+      <c r="F45" s="86">
+        <v>0</v>
+      </c>
       <c r="G45" s="87">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H45" s="88"/>
+      <c r="H45" s="88" t="s">
+        <v>112</v>
+      </c>
       <c r="I45" s="76"/>
       <c r="J45" s="77">
         <f t="shared" si="5"/>
@@ -4125,12 +4392,12 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" ht="106.5">
+    <row r="46" spans="1:13" ht="198">
       <c r="A46" s="23" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C46" s="83">
         <v>0.7</v>
@@ -4139,14 +4406,18 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="86"/>
+        <v>115</v>
+      </c>
+      <c r="F46" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G46" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H46" s="88"/>
+      <c r="H46" s="218" t="s">
+        <v>116</v>
+      </c>
       <c r="I46" s="76"/>
       <c r="J46" s="77">
         <f t="shared" si="5"/>
@@ -4158,10 +4429,10 @@
     </row>
     <row r="47" spans="1:13" ht="76.5">
       <c r="A47" s="23" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C47" s="83">
         <v>0.5</v>
@@ -4170,14 +4441,18 @@
         <v>6</v>
       </c>
       <c r="E47" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" s="86"/>
+        <v>119</v>
+      </c>
+      <c r="F47" s="86">
+        <v>0.6</v>
+      </c>
       <c r="G47" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H47" s="88"/>
+      <c r="H47" s="88" t="s">
+        <v>120</v>
+      </c>
       <c r="I47" s="76"/>
       <c r="J47" s="77">
         <f t="shared" si="5"/>
@@ -4189,10 +4464,10 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="13" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C48" s="83">
         <v>1</v>
@@ -4201,14 +4476,18 @@
         <v>4</v>
       </c>
       <c r="E48" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="F48" s="86">
+        <v>1</v>
+      </c>
       <c r="G48" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H48" s="88"/>
+      <c r="H48" s="88" t="s">
+        <v>33</v>
+      </c>
       <c r="I48" s="76"/>
       <c r="J48" s="77">
         <f t="shared" si="5"/>
@@ -4219,10 +4498,10 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="227" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="228"/>
+      <c r="A49" s="221" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="222"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>22</v>
@@ -4234,7 +4513,7 @@
       <c r="E49" s="59"/>
       <c r="F49" s="70">
         <f>SUMPRODUCT(F40:F48,G40:G48)</f>
-        <v>0</v>
+        <v>24.200000000000003</v>
       </c>
       <c r="G49" s="51">
         <f>SUM(G40:G48)</f>
@@ -4258,36 +4537,36 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="232" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="232"/>
-      <c r="C50" s="225" t="s">
+      <c r="A50" s="226" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="226"/>
+      <c r="C50" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="226"/>
+      <c r="D50" s="220"/>
       <c r="E50" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="225" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="226"/>
+      <c r="G50" s="220"/>
       <c r="H50" s="46"/>
-      <c r="I50" s="225" t="s">
+      <c r="I50" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="226"/>
+      <c r="J50" s="220"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4296,13 +4575,17 @@
         <v>2</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="82"/>
+        <v>33</v>
+      </c>
+      <c r="F51" s="82">
+        <v>1</v>
+      </c>
       <c r="G51" s="27">
         <v>2</v>
       </c>
-      <c r="H51" s="28"/>
+      <c r="H51" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="I51" s="73"/>
       <c r="J51" s="74">
         <v>2</v>
@@ -4313,10 +4596,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="23" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C52" s="83">
         <v>1</v>
@@ -4325,13 +4608,17 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="F52" s="86">
+        <v>1</v>
+      </c>
       <c r="G52" s="87">
         <v>2</v>
       </c>
-      <c r="H52" s="88"/>
+      <c r="H52" s="88" t="s">
+        <v>33</v>
+      </c>
       <c r="I52" s="76"/>
       <c r="J52" s="77">
         <v>2</v>
@@ -4342,10 +4629,10 @@
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C53" s="83">
         <v>0</v>
@@ -4354,13 +4641,17 @@
         <v>1</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" s="86"/>
+        <v>131</v>
+      </c>
+      <c r="F53" s="86">
+        <v>1</v>
+      </c>
       <c r="G53" s="87">
         <v>1</v>
       </c>
-      <c r="H53" s="88"/>
+      <c r="H53" s="88" t="s">
+        <v>33</v>
+      </c>
       <c r="I53" s="76"/>
       <c r="J53" s="77">
         <v>1</v>
@@ -4371,10 +4662,10 @@
     </row>
     <row r="54" spans="1:17" ht="60.75">
       <c r="A54" s="23" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C54" s="83">
         <v>1</v>
@@ -4383,13 +4674,17 @@
         <v>4</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="F54" s="86">
+        <v>1</v>
+      </c>
       <c r="G54" s="87">
         <v>4</v>
       </c>
-      <c r="H54" s="88"/>
+      <c r="H54" s="88" t="s">
+        <v>33</v>
+      </c>
       <c r="I54" s="76"/>
       <c r="J54" s="77">
         <v>4</v>
@@ -4400,10 +4695,10 @@
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C55" s="83">
         <v>0.25</v>
@@ -4412,13 +4707,17 @@
         <v>2</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" s="86"/>
+        <v>136</v>
+      </c>
+      <c r="F55" s="86">
+        <v>1</v>
+      </c>
       <c r="G55" s="87">
         <v>2</v>
       </c>
-      <c r="H55" s="88"/>
+      <c r="H55" s="88" t="s">
+        <v>33</v>
+      </c>
       <c r="I55" s="76"/>
       <c r="J55" s="77">
         <v>2</v>
@@ -4428,10 +4727,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="227" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="228"/>
+      <c r="A56" s="221" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="222"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>8.5</v>
@@ -4443,7 +4742,7 @@
       <c r="E56" s="59"/>
       <c r="F56" s="60">
         <f>SUMPRODUCT(F51:F55,G51:G55)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G56" s="61">
         <f>SUM(G51:G55)</f>
@@ -4463,27 +4762,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="255" t="s">
+      <c r="A57" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="256"/>
-      <c r="C57" s="256"/>
-      <c r="D57" s="256"/>
-      <c r="E57" s="256"/>
-      <c r="F57" s="256"/>
-      <c r="G57" s="256"/>
-      <c r="H57" s="256"/>
-      <c r="I57" s="256"/>
-      <c r="J57" s="256"/>
-      <c r="K57" s="257"/>
+      <c r="B57" s="224"/>
+      <c r="C57" s="224"/>
+      <c r="D57" s="224"/>
+      <c r="E57" s="224"/>
+      <c r="F57" s="224"/>
+      <c r="G57" s="224"/>
+      <c r="H57" s="224"/>
+      <c r="I57" s="224"/>
+      <c r="J57" s="224"/>
+      <c r="K57" s="225"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="242" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="243"/>
+      <c r="A58" s="227" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="228"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>73.050000000000011</v>
@@ -4495,14 +4794,14 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>0</v>
+        <v>69.050000000000011</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
         <v>100</v>
       </c>
       <c r="H58" s="28"/>
-      <c r="I58" s="213">
+      <c r="I58" s="212">
         <f>I11+I18+I22+I27+I32+I38+I49+I56</f>
         <v>0</v>
       </c>
@@ -4515,52 +4814,49 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="244" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="245"/>
-      <c r="C59" s="246">
+      <c r="A59" s="229" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="230"/>
+      <c r="C59" s="231">
         <f>C58/D58</f>
         <v>0.73050000000000015</v>
       </c>
-      <c r="D59" s="247"/>
-      <c r="E59" s="248"/>
-      <c r="F59" s="249">
+      <c r="D59" s="232"/>
+      <c r="E59" s="233"/>
+      <c r="F59" s="234">
         <f>F58/G58</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="250"/>
-      <c r="H59" s="251"/>
-      <c r="I59" s="252">
+        <v>0.69050000000000011</v>
+      </c>
+      <c r="G59" s="235"/>
+      <c r="H59" s="236"/>
+      <c r="I59" s="237">
         <f>I58/J58</f>
         <v>0</v>
       </c>
-      <c r="J59" s="253"/>
-      <c r="K59" s="254"/>
+      <c r="J59" s="238"/>
+      <c r="K59" s="239"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="N6:P6"/>
@@ -4577,22 +4873,25 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 F34:F37 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 C40:C48" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
@@ -4614,8 +4913,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4630,15 +4929,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="260" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
+      <c r="B2" s="260"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -4651,7 +4950,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4662,31 +4961,31 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="262" t="s">
+      <c r="A6" s="264" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="263"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="264"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="266"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B7" s="131" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F7" s="131" t="s">
         <v>17</v>
@@ -4697,7 +4996,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B8" s="134">
         <v>0.8</v>
@@ -4713,15 +5012,15 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="G8" s="135" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60.75">
       <c r="A9" s="136" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B9" s="137">
         <v>1</v>
@@ -4737,15 +5036,15 @@
         <v>12</v>
       </c>
       <c r="F9" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="215" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="G9" s="214" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -4761,15 +5060,15 @@
         <v>2.5</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G10" s="135" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="136" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B11" s="137">
         <v>0.8</v>
@@ -4786,12 +5085,12 @@
       </c>
       <c r="F11" s="137"/>
       <c r="G11" s="138" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45.75">
       <c r="A12" s="133" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B12" s="134">
         <v>0.75</v>
@@ -4807,15 +5106,15 @@
         <v>15</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="216" t="s">
-        <v>134</v>
+        <v>18</v>
+      </c>
+      <c r="G12" s="215" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="133" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B13" s="134">
         <v>1</v>
@@ -4831,15 +5130,15 @@
         <v>0</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G13" s="135" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="137.25">
       <c r="A14" s="136" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B14" s="137">
         <v>0.5</v>
@@ -4855,18 +5154,18 @@
         <v>6.5</v>
       </c>
       <c r="F14" s="137" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="215" t="s">
-        <v>138</v>
+        <v>29</v>
+      </c>
+      <c r="G14" s="214" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="139" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="265"/>
-      <c r="C15" s="265"/>
+        <v>157</v>
+      </c>
+      <c r="B15" s="267"/>
+      <c r="C15" s="267"/>
       <c r="D15" s="140">
         <f>SUM(D8:D14)</f>
         <v>100</v>
@@ -4880,7 +5179,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="143" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B16" s="144" t="s">
         <v>14</v>
@@ -4890,7 +5189,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="145" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F16" s="145"/>
       <c r="G16" s="146" t="s">
@@ -4899,7 +5198,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="147" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B17" s="148">
         <v>0.3</v>
@@ -4913,15 +5212,15 @@
         <v>-3</v>
       </c>
       <c r="F17" s="148" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="G17" s="150" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="151" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B18" s="152">
         <v>0</v>
@@ -4938,31 +5237,31 @@
       <c r="G18" s="154"/>
     </row>
     <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="266" t="s">
+      <c r="A19" s="268" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="267"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="267"/>
-      <c r="F19" s="267"/>
-      <c r="G19" s="268"/>
+      <c r="B19" s="269"/>
+      <c r="C19" s="269"/>
+      <c r="D19" s="269"/>
+      <c r="E19" s="269"/>
+      <c r="F19" s="269"/>
+      <c r="G19" s="270"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="155" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B20" s="156" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="156" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D20" s="156" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="156" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F20" s="156" t="s">
         <v>17</v>
@@ -4971,479 +5270,507 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="106.5">
       <c r="A21" s="158" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B21" s="159">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C21" s="159">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="D21" s="159">
         <v>26</v>
       </c>
       <c r="E21" s="159">
         <f>B21*C21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="159"/>
-      <c r="G21" s="160"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="161" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="162">
-        <v>0</v>
-      </c>
-      <c r="C22" s="162">
-        <v>0</v>
-      </c>
-      <c r="D22" s="162">
+        <v>15.469999999999999</v>
+      </c>
+      <c r="F21" s="159" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="216" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30.75">
+      <c r="A22" s="160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="161">
+        <v>1</v>
+      </c>
+      <c r="C22" s="161">
+        <v>1</v>
+      </c>
+      <c r="D22" s="161">
         <v>16</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="161">
         <f t="shared" ref="E22:E26" si="1">B22*C22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="163"/>
-    </row>
-    <row r="23" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="F22" s="161" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="217" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30.75">
       <c r="A23" s="158" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B23" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="159">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="D23" s="159">
         <v>26</v>
       </c>
       <c r="E23" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="159"/>
-      <c r="G23" s="160"/>
+        <v>22.099999999999998</v>
+      </c>
+      <c r="F23" s="159" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="216" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="161" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="162">
-        <v>0</v>
-      </c>
-      <c r="C24" s="162">
-        <v>0</v>
-      </c>
-      <c r="D24" s="162">
+      <c r="A24" s="160" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="161">
+        <v>0.9</v>
+      </c>
+      <c r="C24" s="161">
+        <v>1</v>
+      </c>
+      <c r="D24" s="161">
         <v>14</v>
       </c>
-      <c r="E24" s="162">
+      <c r="E24" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
-    </row>
-    <row r="25" spans="1:7">
+        <v>12.6</v>
+      </c>
+      <c r="F24" s="161" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="162" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="76.5">
       <c r="A25" s="158" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B25" s="159">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C25" s="159">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="D25" s="159">
         <v>10</v>
       </c>
       <c r="E25" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="159"/>
-      <c r="G25" s="160"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="161" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="162">
-        <v>0</v>
-      </c>
-      <c r="C26" s="162">
-        <v>0</v>
-      </c>
-      <c r="D26" s="162">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="F25" s="159" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="216" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45.75">
+      <c r="A26" s="160" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="161">
+        <v>1</v>
+      </c>
+      <c r="C26" s="161">
+        <v>0.85</v>
+      </c>
+      <c r="D26" s="161">
         <v>8</v>
       </c>
-      <c r="E26" s="162">
+      <c r="E26" s="161">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
+        <v>6.8</v>
+      </c>
+      <c r="F26" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="217" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="164" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165">
+      <c r="A27" s="163" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="164"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164">
         <f>SUM(D21:D26)</f>
         <v>100</v>
       </c>
-      <c r="E27" s="166">
+      <c r="E27" s="165">
         <f>(SUM(E21:E26) + E29+E30+E31)/D27</f>
+        <v>0.76769999999999983</v>
+      </c>
+      <c r="F27" s="165"/>
+      <c r="G27" s="166"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="167" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="168" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="169" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="169"/>
+      <c r="G28" s="170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="171" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="172">
+        <v>0.3</v>
+      </c>
+      <c r="C29" s="172"/>
+      <c r="D29" s="173">
+        <v>-10</v>
+      </c>
+      <c r="E29" s="172">
+        <f>B29*D29</f>
+        <v>-3</v>
+      </c>
+      <c r="F29" s="172" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="174" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="176">
         <v>0</v>
       </c>
-      <c r="F27" s="166"/>
-      <c r="G27" s="167"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="168" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="169" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="170" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="170"/>
-      <c r="G28" s="171" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="172" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="173">
-        <v>0</v>
-      </c>
-      <c r="C29" s="173"/>
-      <c r="D29" s="174">
-        <v>-10</v>
-      </c>
-      <c r="E29" s="173">
-        <f>B29*D29</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="173"/>
-      <c r="G29" s="175"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="176" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="177">
-        <v>0</v>
-      </c>
-      <c r="C30" s="177"/>
-      <c r="D30" s="178">
+      <c r="C30" s="176"/>
+      <c r="D30" s="177">
         <v>-15</v>
       </c>
-      <c r="E30" s="177">
+      <c r="E30" s="176">
         <f>B30*D30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="177"/>
-      <c r="G30" s="179"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="178"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="180" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="181">
+      <c r="A31" s="179" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="180">
         <v>0</v>
       </c>
-      <c r="C31" s="181"/>
-      <c r="D31" s="182">
+      <c r="C31" s="180"/>
+      <c r="D31" s="181">
         <v>-5</v>
       </c>
-      <c r="E31" s="181">
+      <c r="E31" s="180">
         <f>B31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="181"/>
-      <c r="G31" s="183"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="182"/>
     </row>
     <row r="32" spans="1:7" ht="23.25">
-      <c r="A32" s="259" t="s">
+      <c r="A32" s="261" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="260"/>
-      <c r="C32" s="260"/>
-      <c r="D32" s="260"/>
-      <c r="E32" s="260"/>
-      <c r="F32" s="260"/>
-      <c r="G32" s="261"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="262"/>
+      <c r="D32" s="262"/>
+      <c r="E32" s="262"/>
+      <c r="F32" s="262"/>
+      <c r="G32" s="263"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="184" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="185" t="s">
+      <c r="A33" s="183" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="185" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="185" t="s">
+      <c r="C33" s="184" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="185" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="185" t="s">
+      <c r="E33" s="184" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="186" t="s">
+      <c r="G33" s="185" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="187" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="188">
+      <c r="A34" s="186" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="187">
         <v>0</v>
       </c>
-      <c r="C34" s="188">
+      <c r="C34" s="187">
         <v>0</v>
       </c>
-      <c r="D34" s="188">
+      <c r="D34" s="187">
         <v>30</v>
       </c>
-      <c r="E34" s="188">
+      <c r="E34" s="187">
         <f t="shared" ref="E34:E40" si="2">B34*C34*D34</f>
         <v>0</v>
       </c>
-      <c r="F34" s="188"/>
-      <c r="G34" s="189"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="188"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="190" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="191">
+      <c r="A35" s="189" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="190">
         <v>0</v>
       </c>
-      <c r="C35" s="191">
+      <c r="C35" s="190">
         <v>0</v>
       </c>
-      <c r="D35" s="191">
+      <c r="D35" s="190">
         <v>12</v>
       </c>
-      <c r="E35" s="191">
+      <c r="E35" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F35" s="191"/>
-      <c r="G35" s="192"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="191"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="187" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="188">
+      <c r="A36" s="186" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="187">
         <v>0</v>
       </c>
-      <c r="C36" s="188">
+      <c r="C36" s="187">
         <v>0</v>
       </c>
-      <c r="D36" s="188">
+      <c r="D36" s="187">
         <v>8</v>
       </c>
-      <c r="E36" s="188">
+      <c r="E36" s="187">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F36" s="188"/>
-      <c r="G36" s="189"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="188"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="190" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="191">
+      <c r="A37" s="189" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="190">
         <v>0</v>
       </c>
-      <c r="C37" s="191">
+      <c r="C37" s="190">
         <v>0</v>
       </c>
-      <c r="D37" s="191">
+      <c r="D37" s="190">
         <v>14</v>
       </c>
-      <c r="E37" s="191">
+      <c r="E37" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F37" s="191"/>
-      <c r="G37" s="192"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="191"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="187" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="188">
+      <c r="A38" s="186" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="187">
         <v>0</v>
       </c>
-      <c r="C38" s="188">
+      <c r="C38" s="187">
         <v>0</v>
       </c>
-      <c r="D38" s="188">
+      <c r="D38" s="187">
         <v>12</v>
       </c>
-      <c r="E38" s="188">
+      <c r="E38" s="187">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F38" s="188"/>
-      <c r="G38" s="189"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="188"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="190" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="191">
+      <c r="A39" s="189" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="190">
         <v>0</v>
       </c>
-      <c r="C39" s="191">
+      <c r="C39" s="190">
         <v>0</v>
       </c>
-      <c r="D39" s="191">
+      <c r="D39" s="190">
         <v>18</v>
       </c>
-      <c r="E39" s="191">
+      <c r="E39" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F39" s="191"/>
-      <c r="G39" s="192"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="191"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="187" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="188">
+      <c r="A40" s="186" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="187">
         <v>0</v>
       </c>
-      <c r="C40" s="188">
+      <c r="C40" s="187">
         <v>0</v>
       </c>
-      <c r="D40" s="188">
+      <c r="D40" s="187">
         <v>6</v>
       </c>
-      <c r="E40" s="188">
+      <c r="E40" s="187">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F40" s="188"/>
-      <c r="G40" s="189"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="188"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="193" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="194"/>
-      <c r="C41" s="194"/>
-      <c r="D41" s="194">
+      <c r="A41" s="192" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="193"/>
+      <c r="C41" s="193"/>
+      <c r="D41" s="193">
         <f>SUM(D34:D40)</f>
         <v>100</v>
       </c>
-      <c r="E41" s="195">
+      <c r="E41" s="194">
         <f>(SUM(E34:E40) +E43+E44+E45)/D41</f>
         <v>0</v>
       </c>
-      <c r="F41" s="195"/>
-      <c r="G41" s="196"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="195"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="197" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="198" t="s">
+      <c r="A42" s="196" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198" t="s">
+      <c r="C42" s="197"/>
+      <c r="D42" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="199" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="199"/>
-      <c r="G42" s="200" t="s">
+      <c r="E42" s="198" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="198"/>
+      <c r="G42" s="199" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="201" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" s="202">
+      <c r="A43" s="200" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="201">
         <v>0</v>
       </c>
-      <c r="C43" s="202"/>
-      <c r="D43" s="203">
+      <c r="C43" s="201"/>
+      <c r="D43" s="202">
         <v>-10</v>
       </c>
-      <c r="E43" s="202">
+      <c r="E43" s="201">
         <f>B43*D43</f>
         <v>0</v>
       </c>
-      <c r="F43" s="202"/>
-      <c r="G43" s="204"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="203"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="205" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="206">
+      <c r="A44" s="204" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="205">
         <v>0</v>
       </c>
-      <c r="C44" s="206"/>
-      <c r="D44" s="207">
+      <c r="C44" s="205"/>
+      <c r="D44" s="206">
         <v>-15</v>
       </c>
-      <c r="E44" s="206">
+      <c r="E44" s="205">
         <f>B44*D44</f>
         <v>0</v>
       </c>
-      <c r="F44" s="206"/>
-      <c r="G44" s="208"/>
+      <c r="F44" s="205"/>
+      <c r="G44" s="207"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="209" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="210">
+      <c r="A45" s="208" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="209">
         <v>0</v>
       </c>
-      <c r="C45" s="210"/>
-      <c r="D45" s="211">
+      <c r="C45" s="209"/>
+      <c r="D45" s="210">
         <v>-5</v>
       </c>
-      <c r="E45" s="210">
+      <c r="E45" s="209">
         <f>B45*D45</f>
         <v>0</v>
       </c>
-      <c r="F45" s="210"/>
-      <c r="G45" s="212"/>
+      <c r="F45" s="209"/>
+      <c r="G45" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5481,6 +5808,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5612,20 +5945,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
--- a/Equipe201.xlsx
+++ b/Equipe201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26012"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1450" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3347A392-F66C-4D34-A50B-8E286FCE64B5}"/>
+  <xr:revisionPtr revIDLastSave="1602" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E2F660E-E7F1-482F-898E-B27D7EED76BD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="206">
   <si>
     <t>Fonct.</t>
   </si>
@@ -110,6 +110,9 @@
   <si>
     <t>PlayAreaComponent a trop de responsabilités.
 OK pour le reste.</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>1.2 Arborescence</t>
@@ -129,6 +132,9 @@
 OK pour le reste.</t>
   </si>
   <si>
+    <t>Client: Services , Server: Services ,  Client: Classes  ne sont pas groupés dans des folders</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
   </si>
   <si>
     <t>Bon travail</t>
+  </si>
+  <si>
+    <t>Votre socketManager a trop de responsabilité, ce qui peut s'apercevoir par la dimension du fichier de test</t>
   </si>
   <si>
     <t>2.2 Attributs</t>
@@ -159,6 +168,9 @@
   </si>
   <si>
     <t>GameFormDescription, ImageSize, RecordTime devrait être un interface</t>
+  </si>
+  <si>
+    <t>GameFormDescription, ImageSize, RecordTime devrait être un interface. Le reste est bon</t>
   </si>
   <si>
     <t>2.3 Accessibilité</t>
@@ -178,6 +190,9 @@
 Vous ne gérez pas l'accesibilité...</t>
   </si>
   <si>
+    <t>writeIngameFile, readGameFile, validateName, isGameFinishedSolo</t>
+  </si>
+  <si>
     <t>2.4 Couplage</t>
   </si>
   <si>
@@ -204,6 +219,9 @@
 Parfois vous intialisez avant le constructeur, parfois dans le constructeur</t>
   </si>
   <si>
+    <t>Vous avez plusieurs constructeurs vide. Parfois vous intialisez avant le constructeur, parfois dans le constructeur (exemple SocketManager</t>
+  </si>
+  <si>
     <t>3. Fonctions et méthodes</t>
   </si>
   <si>
@@ -239,6 +257,10 @@
   </si>
   <si>
     <t>Les methodes   sendDifferentImagesInformationToServerForGameCreation et                                                                                                        setupDataInService  ont 4 paramètres et plus , un objet pourrait reduire celà</t>
+  </si>
+  <si>
+    <t>isPixelInCircle
+addPixelsArroundCurrentColumnToVisit</t>
   </si>
   <si>
     <t>isPixelInCircle
@@ -291,15 +313,15 @@
 OK pour le reste</t>
   </si>
   <si>
+    <t>Good job</t>
+  </si>
+  <si>
     <t>5.2 Environnement</t>
   </si>
   <si>
     <t>Des variables d'environnements sont utilisées lorsque possible.</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>5.3 Contexte d'utilisation</t>
   </si>
   <si>
@@ -313,6 +335,9 @@
   </si>
   <si>
     <t>AS + MOD</t>
+  </si>
+  <si>
+    <t>AS+ MOD</t>
   </si>
   <si>
     <t>6.1 Expression</t>
@@ -347,6 +372,10 @@
   <si>
     <t>verifyTwoImagesUploaded devrait juste retourner votre prédicat. De plus trop complexe
 image-difference-component loaded return true return false
+isgameFinishedMulti prédicat trop compliqué</t>
+  </si>
+  <si>
+    <t>verifyTwoImagesUploaded devrait juste retourner votre prédicat. De plus trop complexe
 isgameFinishedMulti prédicat trop compliqué</t>
   </si>
   <si>
@@ -374,6 +403,15 @@
 -0.1: src\app\services\verify-image.service.ts: Contraints
 -0.1: app\services\difference-detector.service.ts: Datas, Cloumn, Arround
 -0.1: common\const.ts: Commentaires en francais, d'autres en anglais.</t>
+  </si>
+  <si>
+    <t>-0.2: client/src/app/components/play-area/play-area.component.ts: MILISECONDS, Canavas
+-0.2: client\src\app\components\dialog-input\dialog-input.component.ts: consts (constants), datas (data), 
+-0.1: client\src\app\components\pop-dialogs\pop-dialog-download-images\pop-dialog-download-images.component.ts: Contraints
+-0.1: client\src\app\services\canvas-data-handler.service.ts: leftCanvasEchange: Echange.
+-0.2: client\src\app\services\clue-handler.service.ts: CIRCONFERENCE, multiplyingAddtionFactor
+-0.1: time.service.ts ligne 39: Showable
+-0.1: app\services\difference-detector.service.ts: Datas, Cloumn, Arround</t>
   </si>
   <si>
     <t>7.2 Commentaire</t>
@@ -395,6 +433,10 @@
 -0.1: local.games.service.ts ligne 7</t>
   </si>
   <si>
+    <t>-0.1: client\src\app\components\play-area\play-area.component.ts: Commentaire non pertinent lignes 122, 123.
+-0.1: server/app/services/mouse-handler.service.ts: ligne 97.</t>
+  </si>
+  <si>
     <t>7.3 Enum</t>
   </si>
   <si>
@@ -416,6 +458,9 @@
     <t xml:space="preserve">VeriyImageSerice L73   </t>
   </si>
   <si>
+    <t xml:space="preserve">VeriyImageSerice L79   </t>
+  </si>
+  <si>
     <t>7.5 Duplication</t>
   </si>
   <si>
@@ -425,6 +470,14 @@
     <t>-0.1 client/src/app/components/canvas-drawing/canvas-drawing.component.ts:
 x: this.drawingHandlerService.getCoordinateX(mouseEvent[0],canvasReact),
           y: this.drawingHandlerService.getCoordinateY(mouseEvent[0],canvasReact)</t>
+  </si>
+  <si>
+    <t>-0.2: client\src\app\components\tool-setting\tool-setting.component.ts: dans cancelActionDeletedDrawnLine et cancelActionDrawnLine
+-0.1: client\src\app\services\chat-messages.service.ts: lignes 96 et 100. (Peuvent etre dans le meme socket on.)
+-0.1: client\src\app\services\drawing-handler.service.ts: savingProcess: getRedoDrawingHistory (peut etre stocké dans une variable)
+-0.2: client\src\app\services\drawing-history.service.ts: code dupliqué: const imageData = this.context[index].getImageData(0, 0, IMAGE_WIDTH, IMAGE_HEIGHT);
+        this.cancelDrawingHistory[index].push(imageData);
+ peut être mis dans une fonction a part</t>
   </si>
   <si>
     <t>7.6 ESLint</t>
@@ -442,6 +495,10 @@
 Corrigez les erreurs lint par npm run lint -- --fix
 Le nombre d'erreur descend à 500.
 Pour le serveur: il y a 190 après le fix.</t>
+  </si>
+  <si>
+    <t>Eslint: Échoue avec 359 erreurs dans le client.
+Échoue avec 369 erreurs dans le serveur.</t>
   </si>
   <si>
     <t>7.7 Complexité</t>
@@ -486,6 +543,10 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">socketService.on('Valid click' ,
+</t>
+  </si>
+  <si>
     <t>7.7 Nomenclature des variables, classes et méthodes</t>
   </si>
   <si>
@@ -499,6 +560,11 @@
   <si>
     <t>imagesdata
 gamelist
+plusieurs fonctions et variables ont des noms trop longs</t>
+  </si>
+  <si>
+    <t>imagesdata
+gamelist pas en camelCase
 plusieurs fonctions et variables ont des noms trop longs</t>
   </si>
   <si>
@@ -696,12 +762,23 @@
     <t>3.1 Mode Temps Limité</t>
   </si>
   <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>SI AUCUNE FICHIE DISPONIBLE : Ne pas pouvoir partir un jeu en mode temps limité
+SI LES FICHES SONT SUPPRIMÉES DURANT UNE PARTIE : accepter que le jeu se termine à la fin de la paire en cours OU que le jeu continue si les fichies ont été sauvegardés en mémoire au début
+Bon tavail  pour le reste</t>
+  </si>
+  <si>
     <t>3.2 Remise des données à leur état initial</t>
   </si>
   <si>
     <t>3.3 Vue d'Administration - constantes de jeu</t>
   </si>
   <si>
+    <t>Manque façon de voir les constantes en cours</t>
+  </si>
+  <si>
     <t>3.4 Indices de jeu</t>
   </si>
   <si>
@@ -715,6 +792,9 @@
   </si>
   <si>
     <t>Erreur de build / déploiement erroné</t>
+  </si>
+  <si>
+    <t>should setAllObservable fail et should test wait Image load fail</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1753,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2307,6 +2387,33 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2319,17 +2426,44 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2370,65 +2504,14 @@
     <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2555,7 +2638,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2843,7 +2926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2854,8 +2937,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2945,15 +3028,15 @@
       </c>
       <c r="B6" s="118">
         <f>(Fonctionnalités!E41)</f>
-        <v>0</v>
+        <v>0.91299999999999992</v>
       </c>
       <c r="C6" s="118">
         <f>'Assurance Qualité'!I59</f>
-        <v>0</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="D6" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80899999999999994</v>
       </c>
       <c r="E6" s="119"/>
       <c r="F6" s="120">
@@ -2961,7 +3044,7 @@
       </c>
       <c r="G6" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2971,7 +3054,7 @@
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
       <c r="D7" s="123">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="E7" s="124"/>
       <c r="F7" s="122">
@@ -2979,7 +3062,7 @@
       </c>
       <c r="G7" s="125">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -2992,8 +3075,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="B45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3012,36 +3095,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="252" t="s">
+      <c r="A4" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="252"/>
-      <c r="J4" s="252"/>
-      <c r="K4" s="252"/>
+      <c r="B4" s="221"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -3061,36 +3144,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="225" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="246" t="s">
+      <c r="C6" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="247"/>
-      <c r="E6" s="247"/>
-      <c r="F6" s="248" t="s">
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="242" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="249"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="253" t="s">
+      <c r="G6" s="243"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="254"/>
-      <c r="K6" s="255"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="224"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="242"/>
-      <c r="O6" s="243"/>
-      <c r="P6" s="243"/>
+      <c r="N6" s="236"/>
+      <c r="O6" s="237"/>
+      <c r="P6" s="237"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="245"/>
-      <c r="B7" s="257"/>
+      <c r="A7" s="239"/>
+      <c r="B7" s="226"/>
       <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
@@ -3126,29 +3209,31 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="226" t="s">
+      <c r="A8" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="226"/>
-      <c r="C8" s="219" t="s">
+      <c r="B8" s="235"/>
+      <c r="C8" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="220"/>
+      <c r="D8" s="229"/>
       <c r="E8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="219" t="s">
+      <c r="F8" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="220"/>
+      <c r="G8" s="229"/>
       <c r="H8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="219" t="s">
+      <c r="I8" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="220"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="40"/>
@@ -3181,11 +3266,15 @@
       <c r="H9" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="104"/>
+      <c r="I9" s="104">
+        <v>1</v>
+      </c>
       <c r="J9" s="105">
         <v>6</v>
       </c>
-      <c r="K9" s="106"/>
+      <c r="K9" s="106" t="s">
+        <v>23</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="40"/>
@@ -3195,10 +3284,10 @@
     </row>
     <row r="10" spans="1:17" ht="351">
       <c r="A10" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="100">
         <v>0.95</v>
@@ -3207,7 +3296,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="102">
         <v>0.6</v>
@@ -3216,13 +3305,17 @@
         <v>2</v>
       </c>
       <c r="H10" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="104"/>
+        <v>27</v>
+      </c>
+      <c r="I10" s="104">
+        <v>0.8</v>
+      </c>
       <c r="J10" s="105">
         <v>2</v>
       </c>
-      <c r="K10" s="106"/>
+      <c r="K10" s="106" t="s">
+        <v>28</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="40"/>
@@ -3231,10 +3324,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="221" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="222"/>
+      <c r="A11" s="230" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="231"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>7.6</v>
@@ -3255,7 +3348,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="53">
         <f>SUMPRODUCT(I6:I10,J6:J10)</f>
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J11" s="54">
         <f>SUM(J6:J10)</f>
@@ -3270,28 +3363,28 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="226" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="226"/>
-      <c r="C12" s="219" t="s">
+      <c r="A12" s="235" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="235"/>
+      <c r="C12" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="220"/>
+      <c r="D12" s="229"/>
       <c r="E12" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="219" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="220"/>
+      <c r="G12" s="229"/>
       <c r="H12" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="219" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="220"/>
+      <c r="J12" s="229"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3302,10 +3395,10 @@
     </row>
     <row r="13" spans="1:17" ht="91.5">
       <c r="A13" s="29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="79">
         <v>0.8</v>
@@ -3314,7 +3407,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="89">
         <v>1</v>
@@ -3324,23 +3417,27 @@
         <v>3</v>
       </c>
       <c r="H13" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="92"/>
+        <v>35</v>
+      </c>
+      <c r="I13" s="92">
+        <v>0.5</v>
+      </c>
       <c r="J13" s="93">
         <f>G13</f>
         <v>3</v>
       </c>
-      <c r="K13" s="94"/>
+      <c r="K13" s="94" t="s">
+        <v>36</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:17" ht="60.75">
+    <row r="14" spans="1:17" ht="76.5">
       <c r="A14" s="23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" s="83">
         <v>1</v>
@@ -3349,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" s="86">
         <v>0.8</v>
@@ -3359,23 +3456,27 @@
         <v>2</v>
       </c>
       <c r="H14" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="I14" s="76">
+        <v>0.8</v>
+      </c>
       <c r="J14" s="93">
         <f t="shared" ref="J14:J17" si="1">G14</f>
         <v>2</v>
       </c>
-      <c r="K14" s="78"/>
+      <c r="K14" s="78" t="s">
+        <v>40</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="137.25">
       <c r="A15" s="23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C15" s="83">
         <v>0.25</v>
@@ -3384,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F15" s="86">
         <v>0</v>
@@ -3394,23 +3495,27 @@
         <v>2</v>
       </c>
       <c r="H15" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="76"/>
+        <v>44</v>
+      </c>
+      <c r="I15" s="76">
+        <v>0</v>
+      </c>
       <c r="J15" s="93">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K15" s="78"/>
+      <c r="K15" s="78" t="s">
+        <v>45</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="121.5">
       <c r="A16" s="23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C16" s="83">
         <v>0.9</v>
@@ -3419,7 +3524,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F16" s="86">
         <v>0.25</v>
@@ -3429,23 +3534,27 @@
         <v>4</v>
       </c>
       <c r="H16" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="76"/>
+        <v>49</v>
+      </c>
+      <c r="I16" s="76">
+        <v>0.25</v>
+      </c>
       <c r="J16" s="93">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K16" s="78"/>
+      <c r="K16" s="78" t="s">
+        <v>49</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="121.5">
       <c r="A17" s="23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C17" s="83">
         <v>1</v>
@@ -3454,7 +3563,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17" s="86">
         <v>0.25</v>
@@ -3464,22 +3573,26 @@
         <v>4</v>
       </c>
       <c r="H17" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="76"/>
+        <v>52</v>
+      </c>
+      <c r="I17" s="76">
+        <v>0.1</v>
+      </c>
       <c r="J17" s="93">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K17" s="78"/>
+      <c r="K17" s="78" t="s">
+        <v>53</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="221" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="222"/>
+      <c r="A18" s="230" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="231"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>12.5</v>
@@ -3500,7 +3613,7 @@
       <c r="H18" s="52"/>
       <c r="I18" s="53">
         <f>SUMPRODUCT(I13:I17,J13:J17)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J18" s="54">
         <f>SUM(J13:J17)</f>
@@ -3515,38 +3628,40 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="258" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="258"/>
-      <c r="C19" s="219" t="s">
+      <c r="A19" s="227" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="227"/>
+      <c r="C19" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="220"/>
+      <c r="D19" s="229"/>
       <c r="E19" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="219" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="220"/>
+      <c r="G19" s="229"/>
       <c r="H19" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="219" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="220"/>
-      <c r="K19" s="46"/>
+      <c r="J19" s="229"/>
+      <c r="K19" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="229.5">
       <c r="A20" s="23" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C20" s="83">
         <v>0.5</v>
@@ -3555,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F20" s="86">
         <v>0.7</v>
@@ -3564,22 +3679,26 @@
         <v>3</v>
       </c>
       <c r="H20" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="76"/>
+        <v>60</v>
+      </c>
+      <c r="I20" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J20" s="77">
         <v>3</v>
       </c>
-      <c r="K20" s="78"/>
+      <c r="K20" s="78" t="s">
+        <v>60</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:17" ht="106.5">
       <c r="A21" s="23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C21" s="83">
         <v>0.7</v>
@@ -3588,7 +3707,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F21" s="86">
         <v>0.7</v>
@@ -3597,21 +3716,25 @@
         <v>3</v>
       </c>
       <c r="H21" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="76"/>
+        <v>64</v>
+      </c>
+      <c r="I21" s="76">
+        <v>0.6</v>
+      </c>
       <c r="J21" s="77">
         <v>3</v>
       </c>
-      <c r="K21" s="78"/>
+      <c r="K21" s="78" t="s">
+        <v>65</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="259" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="241"/>
+      <c r="A22" s="232" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="233"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>3.5999999999999996</v>
@@ -3632,7 +3755,7 @@
       <c r="H22" s="62"/>
       <c r="I22" s="63">
         <f>SUMPRODUCT(I20:I21,J20:J21)</f>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J22" s="64">
         <f>SUM(J20:J21)</f>
@@ -3644,37 +3767,37 @@
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="45" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B23" s="45"/>
-      <c r="C23" s="219" t="s">
+      <c r="C23" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="220"/>
+      <c r="D23" s="229"/>
       <c r="E23" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="219" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="220"/>
+      <c r="G23" s="229"/>
       <c r="H23" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="219" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="220"/>
+      <c r="J23" s="229"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:17" ht="76.5">
       <c r="A24" s="42" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C24" s="97">
         <v>1</v>
@@ -3683,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F24" s="82">
         <v>1</v>
@@ -3692,22 +3815,26 @@
         <v>2</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="73"/>
+        <v>35</v>
+      </c>
+      <c r="I24" s="73">
+        <v>1</v>
+      </c>
       <c r="J24" s="74">
         <v>2</v>
       </c>
-      <c r="K24" s="75"/>
+      <c r="K24" s="75" t="s">
+        <v>35</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:17" ht="45.75">
       <c r="A25" s="23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C25" s="83">
         <v>1</v>
@@ -3716,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F25" s="86">
         <v>0.5</v>
@@ -3725,22 +3852,26 @@
         <v>1</v>
       </c>
       <c r="H25" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="76"/>
+        <v>72</v>
+      </c>
+      <c r="I25" s="76">
+        <v>1</v>
+      </c>
       <c r="J25" s="77">
         <v>1</v>
       </c>
-      <c r="K25" s="78"/>
+      <c r="K25" s="78" t="s">
+        <v>35</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
@@ -3749,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F26" s="86">
         <v>1</v>
@@ -3758,21 +3889,25 @@
         <v>1</v>
       </c>
       <c r="H26" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="I26" s="76">
+        <v>1</v>
+      </c>
       <c r="J26" s="77">
         <v>1</v>
       </c>
-      <c r="K26" s="78"/>
+      <c r="K26" s="78" t="s">
+        <v>35</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="16.5">
-      <c r="A27" s="240" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="241"/>
+      <c r="A27" s="234" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="233"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>4</v>
@@ -3782,7 +3917,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F27" s="60">
         <f>SUMPRODUCT(F24:F26,G24:G26)</f>
@@ -3795,7 +3930,7 @@
       <c r="H27" s="62"/>
       <c r="I27" s="63">
         <f>SUMPRODUCT(I24:I26,J24:J26)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" s="64">
         <f>SUM(J24:J26)</f>
@@ -3806,36 +3941,40 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="258" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="258"/>
-      <c r="C28" s="219" t="s">
+      <c r="A28" s="227" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="227"/>
+      <c r="C28" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="220"/>
+      <c r="D28" s="229"/>
       <c r="E28" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="219" t="s">
+      <c r="F28" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="220"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="219" t="s">
+      <c r="G28" s="229"/>
+      <c r="H28" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="220"/>
-      <c r="K28" s="46"/>
+      <c r="J28" s="229"/>
+      <c r="K28" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:17" ht="305.25">
       <c r="A29" s="31" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C29" s="79">
         <v>0.8</v>
@@ -3844,7 +3983,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F29" s="89">
         <v>0.5</v>
@@ -3854,23 +3993,27 @@
         <v>2</v>
       </c>
       <c r="H29" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="I29" s="92"/>
+        <v>79</v>
+      </c>
+      <c r="I29" s="92">
+        <v>1</v>
+      </c>
       <c r="J29" s="93">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="K29" s="94"/>
+      <c r="K29" s="94" t="s">
+        <v>80</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C30" s="83">
         <v>1</v>
@@ -3887,9 +4030,11 @@
         <v>2</v>
       </c>
       <c r="H30" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" s="76"/>
+        <v>23</v>
+      </c>
+      <c r="I30" s="76">
+        <v>1</v>
+      </c>
       <c r="J30" s="93">
         <f t="shared" ref="J30:J31" si="3">D30</f>
         <v>2</v>
@@ -3900,10 +4045,10 @@
     </row>
     <row r="31" spans="1:17" ht="30.75">
       <c r="A31" s="24" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C31" s="83">
         <v>1</v>
@@ -3920,22 +4065,26 @@
         <v>2</v>
       </c>
       <c r="H31" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="76"/>
+        <v>85</v>
+      </c>
+      <c r="I31" s="76">
+        <v>1</v>
+      </c>
       <c r="J31" s="93">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K31" s="78"/>
+      <c r="K31" s="78" t="s">
+        <v>23</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="221" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="222"/>
+      <c r="A32" s="230" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="231"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>5.6</v>
@@ -3956,7 +4105,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="63">
         <f>SUMPRODUCT(I29:I31,J29:J31)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J32" s="64">
         <f>SUM(J29:J31)</f>
@@ -3967,38 +4116,40 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="226" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="226"/>
-      <c r="C33" s="219" t="s">
+      <c r="A33" s="235" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="235"/>
+      <c r="C33" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="220"/>
+      <c r="D33" s="229"/>
       <c r="E33" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="219" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="220"/>
+      <c r="G33" s="229"/>
       <c r="H33" s="46" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I33" s="68" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="66"/>
-      <c r="K33" s="46"/>
+      <c r="K33" s="46" t="s">
+        <v>88</v>
+      </c>
       <c r="L33" s="8"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" ht="30.75">
       <c r="A34" s="29" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C34" s="79">
         <v>1</v>
@@ -4007,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F34" s="89">
         <v>1</v>
@@ -4016,22 +4167,26 @@
         <v>2</v>
       </c>
       <c r="H34" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="92"/>
+        <v>23</v>
+      </c>
+      <c r="I34" s="92">
+        <v>1</v>
+      </c>
       <c r="J34" s="93">
         <v>2</v>
       </c>
-      <c r="K34" s="94"/>
+      <c r="K34" s="94" t="s">
+        <v>23</v>
+      </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -4040,7 +4195,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F35" s="86">
         <v>1</v>
@@ -4049,22 +4204,26 @@
         <v>2</v>
       </c>
       <c r="H35" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="76"/>
+        <v>23</v>
+      </c>
+      <c r="I35" s="76">
+        <v>1</v>
+      </c>
       <c r="J35" s="77">
         <v>2</v>
       </c>
-      <c r="K35" s="78"/>
+      <c r="K35" s="78" t="s">
+        <v>23</v>
+      </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" ht="137.25">
       <c r="A36" s="23" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C36" s="83">
         <v>0.75</v>
@@ -4073,7 +4232,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="85" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F36" s="86">
         <v>1</v>
@@ -4082,22 +4241,26 @@
         <v>3</v>
       </c>
       <c r="H36" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="I36" s="76">
+        <v>1</v>
+      </c>
       <c r="J36" s="77">
         <v>3</v>
       </c>
-      <c r="K36" s="78"/>
+      <c r="K36" s="78" t="s">
+        <v>23</v>
+      </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="213">
       <c r="A37" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C37" s="83">
         <v>1</v>
@@ -4106,7 +4269,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F37" s="86">
         <v>0.25</v>
@@ -4115,21 +4278,25 @@
         <v>3</v>
       </c>
       <c r="H37" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" s="76"/>
+        <v>98</v>
+      </c>
+      <c r="I37" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J37" s="77">
         <v>3</v>
       </c>
-      <c r="K37" s="78"/>
+      <c r="K37" s="78" t="s">
+        <v>99</v>
+      </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="221" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="222"/>
+      <c r="A38" s="230" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="231"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>9.25</v>
@@ -4150,7 +4317,7 @@
       <c r="H38" s="52"/>
       <c r="I38" s="63">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J38" s="64">
         <f>SUM(J34:J37)</f>
@@ -4162,35 +4329,35 @@
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="219" t="s">
+      <c r="C39" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="220"/>
+      <c r="D39" s="229"/>
       <c r="E39" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="219" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="220"/>
+      <c r="G39" s="229"/>
       <c r="H39" s="46"/>
-      <c r="I39" s="219" t="s">
+      <c r="I39" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="220"/>
+      <c r="J39" s="229"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" ht="290.25">
+    <row r="40" spans="1:13" ht="409.6">
       <c r="A40" s="23" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C40" s="83">
         <v>0.6</v>
@@ -4199,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="213" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F40" s="86">
         <v>0.5</v>
@@ -4209,23 +4376,27 @@
         <v>2</v>
       </c>
       <c r="H40" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="I40" s="76"/>
+        <v>105</v>
+      </c>
+      <c r="I40" s="76">
+        <v>0</v>
+      </c>
       <c r="J40" s="77">
         <f>D40</f>
         <v>2</v>
       </c>
-      <c r="K40" s="78"/>
+      <c r="K40" s="78" t="s">
+        <v>106</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" ht="366">
       <c r="A41" s="23" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C41" s="83">
         <v>0.2</v>
@@ -4234,7 +4405,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F41" s="86">
         <v>1</v>
@@ -4244,23 +4415,27 @@
         <v>2</v>
       </c>
       <c r="H41" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="I41" s="76">
+        <v>0.8</v>
+      </c>
       <c r="J41" s="77">
         <f t="shared" ref="J41:J48" si="5">D41</f>
         <v>2</v>
       </c>
-      <c r="K41" s="78"/>
+      <c r="K41" s="78" t="s">
+        <v>110</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="23" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C42" s="83">
         <v>1</v>
@@ -4269,7 +4444,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="F42" s="86">
         <v>1</v>
@@ -4279,7 +4454,9 @@
         <v>2</v>
       </c>
       <c r="H42" s="88"/>
-      <c r="I42" s="76"/>
+      <c r="I42" s="76">
+        <v>1</v>
+      </c>
       <c r="J42" s="77">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4289,10 +4466,10 @@
     </row>
     <row r="43" spans="1:13" ht="137.25">
       <c r="A43" s="23" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C43" s="83">
         <v>0.3</v>
@@ -4301,7 +4478,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F43" s="86">
         <v>0.8</v>
@@ -4311,23 +4488,27 @@
         <v>4</v>
       </c>
       <c r="H43" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="I43" s="76"/>
+        <v>116</v>
+      </c>
+      <c r="I43" s="76">
+        <v>0.8</v>
+      </c>
       <c r="J43" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K43" s="78"/>
+      <c r="K43" s="78" t="s">
+        <v>117</v>
+      </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13" ht="229.5">
+    <row r="44" spans="1:13" ht="409.6">
       <c r="A44" s="23" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C44" s="83">
         <v>1</v>
@@ -4336,7 +4517,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F44" s="86">
         <v>0.9</v>
@@ -4346,23 +4527,27 @@
         <v>6</v>
       </c>
       <c r="H44" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="I44" s="76"/>
+        <v>120</v>
+      </c>
+      <c r="I44" s="76">
+        <v>0.4</v>
+      </c>
       <c r="J44" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K44" s="78"/>
+      <c r="K44" s="78" t="s">
+        <v>121</v>
+      </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" ht="152.25">
       <c r="A45" s="23" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C45" s="83">
         <v>0</v>
@@ -4371,7 +4556,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F45" s="86">
         <v>0</v>
@@ -4381,23 +4566,27 @@
         <v>8</v>
       </c>
       <c r="H45" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="I45" s="76"/>
+        <v>125</v>
+      </c>
+      <c r="I45" s="76">
+        <v>0</v>
+      </c>
       <c r="J45" s="77">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K45" s="78"/>
+      <c r="K45" s="78" t="s">
+        <v>126</v>
+      </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" ht="198">
       <c r="A46" s="23" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C46" s="83">
         <v>0.7</v>
@@ -4406,7 +4595,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F46" s="86">
         <v>0.5</v>
@@ -4416,23 +4605,27 @@
         <v>6</v>
       </c>
       <c r="H46" s="218" t="s">
-        <v>116</v>
-      </c>
-      <c r="I46" s="76"/>
+        <v>130</v>
+      </c>
+      <c r="I46" s="76">
+        <v>0.7</v>
+      </c>
       <c r="J46" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K46" s="78"/>
+      <c r="K46" s="78" t="s">
+        <v>131</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" ht="76.5">
+    <row r="47" spans="1:13" ht="106.5">
       <c r="A47" s="23" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C47" s="83">
         <v>0.5</v>
@@ -4441,7 +4634,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="85" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F47" s="86">
         <v>0.6</v>
@@ -4451,23 +4644,27 @@
         <v>6</v>
       </c>
       <c r="H47" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="I47" s="76"/>
+        <v>135</v>
+      </c>
+      <c r="I47" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J47" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K47" s="78"/>
+      <c r="K47" s="78" t="s">
+        <v>136</v>
+      </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="13" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C48" s="83">
         <v>1</v>
@@ -4476,7 +4673,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F48" s="86">
         <v>1</v>
@@ -4486,22 +4683,26 @@
         <v>4</v>
       </c>
       <c r="H48" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I48" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="I48" s="76">
+        <v>1</v>
+      </c>
       <c r="J48" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K48" s="78"/>
+      <c r="K48" s="78" t="s">
+        <v>35</v>
+      </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="221" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="222"/>
+      <c r="A49" s="230" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="231"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>22</v>
@@ -4522,7 +4723,7 @@
       <c r="H49" s="52"/>
       <c r="I49" s="53">
         <f>SUMPRODUCT(I40:I48,J40:J48)</f>
-        <v>0</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J49" s="54">
         <f>SUM(J40:J48)</f>
@@ -4537,36 +4738,36 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="226" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="226"/>
-      <c r="C50" s="219" t="s">
+      <c r="A50" s="235" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="235"/>
+      <c r="C50" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="220"/>
+      <c r="D50" s="229"/>
       <c r="E50" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="219" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="220"/>
+      <c r="G50" s="229"/>
       <c r="H50" s="46"/>
-      <c r="I50" s="219" t="s">
+      <c r="I50" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="220"/>
+      <c r="J50" s="229"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4575,7 +4776,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F51" s="82">
         <v>1</v>
@@ -4584,9 +4785,11 @@
         <v>2</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I51" s="73"/>
+        <v>35</v>
+      </c>
+      <c r="I51" s="73">
+        <v>1</v>
+      </c>
       <c r="J51" s="74">
         <v>2</v>
       </c>
@@ -4596,10 +4799,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="23" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C52" s="83">
         <v>1</v>
@@ -4608,7 +4811,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F52" s="86">
         <v>1</v>
@@ -4617,9 +4820,11 @@
         <v>2</v>
       </c>
       <c r="H52" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I52" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="I52" s="76">
+        <v>1</v>
+      </c>
       <c r="J52" s="77">
         <v>2</v>
       </c>
@@ -4629,10 +4834,10 @@
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C53" s="83">
         <v>0</v>
@@ -4641,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F53" s="86">
         <v>1</v>
@@ -4650,9 +4855,11 @@
         <v>1</v>
       </c>
       <c r="H53" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I53" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="I53" s="76">
+        <v>1</v>
+      </c>
       <c r="J53" s="77">
         <v>1</v>
       </c>
@@ -4662,10 +4869,10 @@
     </row>
     <row r="54" spans="1:17" ht="60.75">
       <c r="A54" s="23" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C54" s="83">
         <v>1</v>
@@ -4674,7 +4881,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F54" s="86">
         <v>1</v>
@@ -4683,9 +4890,11 @@
         <v>4</v>
       </c>
       <c r="H54" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I54" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="I54" s="76">
+        <v>1</v>
+      </c>
       <c r="J54" s="77">
         <v>4</v>
       </c>
@@ -4695,10 +4904,10 @@
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C55" s="83">
         <v>0.25</v>
@@ -4707,7 +4916,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F55" s="86">
         <v>1</v>
@@ -4716,9 +4925,11 @@
         <v>2</v>
       </c>
       <c r="H55" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="I55" s="76">
+        <v>1</v>
+      </c>
       <c r="J55" s="77">
         <v>2</v>
       </c>
@@ -4727,10 +4938,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="221" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="222"/>
+      <c r="A56" s="230" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="231"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>8.5</v>
@@ -4751,7 +4962,7 @@
       <c r="H56" s="62"/>
       <c r="I56" s="53">
         <f>SUMPRODUCT(I51:I55,J51:J55)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J56" s="54">
         <f>SUM(J51:J55)</f>
@@ -4762,27 +4973,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="223" t="s">
+      <c r="A57" s="258" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="224"/>
-      <c r="C57" s="224"/>
-      <c r="D57" s="224"/>
-      <c r="E57" s="224"/>
-      <c r="F57" s="224"/>
-      <c r="G57" s="224"/>
-      <c r="H57" s="224"/>
-      <c r="I57" s="224"/>
-      <c r="J57" s="224"/>
-      <c r="K57" s="225"/>
+      <c r="B57" s="259"/>
+      <c r="C57" s="259"/>
+      <c r="D57" s="259"/>
+      <c r="E57" s="259"/>
+      <c r="F57" s="259"/>
+      <c r="G57" s="259"/>
+      <c r="H57" s="259"/>
+      <c r="I57" s="259"/>
+      <c r="J57" s="259"/>
+      <c r="K57" s="260"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="227" t="s">
-        <v>137</v>
-      </c>
-      <c r="B58" s="228"/>
+      <c r="A58" s="245" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="246"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>73.050000000000011</v>
@@ -4803,7 +5014,7 @@
       <c r="H58" s="28"/>
       <c r="I58" s="212">
         <f>I11+I18+I22+I27+I32+I38+I49+I56</f>
-        <v>0</v>
+        <v>65.3</v>
       </c>
       <c r="J58" s="32">
         <f>J11+J18+J22+J27+J32+J38+J49+J56</f>
@@ -4814,33 +5025,68 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="229" t="s">
-        <v>138</v>
-      </c>
-      <c r="B59" s="230"/>
-      <c r="C59" s="231">
+      <c r="A59" s="247" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="248"/>
+      <c r="C59" s="249">
         <f>C58/D58</f>
         <v>0.73050000000000015</v>
       </c>
-      <c r="D59" s="232"/>
-      <c r="E59" s="233"/>
-      <c r="F59" s="234">
+      <c r="D59" s="250"/>
+      <c r="E59" s="251"/>
+      <c r="F59" s="252">
         <f>F58/G58</f>
         <v>0.69050000000000011</v>
       </c>
-      <c r="G59" s="235"/>
-      <c r="H59" s="236"/>
-      <c r="I59" s="237">
+      <c r="G59" s="253"/>
+      <c r="H59" s="254"/>
+      <c r="I59" s="255">
         <f>I58/J58</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="238"/>
-      <c r="K59" s="239"/>
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="J59" s="256"/>
+      <c r="K59" s="257"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="I6:K6"/>
@@ -4857,41 +5103,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 F34:F37 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 C40:C48" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
@@ -4913,8 +5124,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4929,15 +5140,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -4950,7 +5161,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4961,31 +5172,31 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="265"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="266"/>
+      <c r="B6" s="266"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
+      <c r="G6" s="267"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B7" s="131" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F7" s="131" t="s">
         <v>17</v>
@@ -4996,7 +5207,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B8" s="134">
         <v>0.8</v>
@@ -5012,15 +5223,15 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G8" s="135" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60.75">
       <c r="A9" s="136" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B9" s="137">
         <v>1</v>
@@ -5039,12 +5250,12 @@
         <v>18</v>
       </c>
       <c r="G9" s="214" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -5060,15 +5271,15 @@
         <v>2.5</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" s="135" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="136" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B11" s="137">
         <v>0.8</v>
@@ -5085,12 +5296,12 @@
       </c>
       <c r="F11" s="137"/>
       <c r="G11" s="138" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45.75">
       <c r="A12" s="133" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B12" s="134">
         <v>0.75</v>
@@ -5109,12 +5320,12 @@
         <v>18</v>
       </c>
       <c r="G12" s="215" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="133" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B13" s="134">
         <v>1</v>
@@ -5130,15 +5341,15 @@
         <v>0</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13" s="135" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="137.25">
       <c r="A14" s="136" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B14" s="137">
         <v>0.5</v>
@@ -5154,18 +5365,18 @@
         <v>6.5</v>
       </c>
       <c r="F14" s="137" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G14" s="214" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="139" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
+        <v>173</v>
+      </c>
+      <c r="B15" s="268"/>
+      <c r="C15" s="268"/>
       <c r="D15" s="140">
         <f>SUM(D8:D14)</f>
         <v>100</v>
@@ -5179,7 +5390,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="143" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B16" s="144" t="s">
         <v>14</v>
@@ -5189,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="145" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F16" s="145"/>
       <c r="G16" s="146" t="s">
@@ -5198,7 +5409,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="147" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B17" s="148">
         <v>0.3</v>
@@ -5212,15 +5423,15 @@
         <v>-3</v>
       </c>
       <c r="F17" s="148" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G17" s="150" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="151" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B18" s="152">
         <v>0</v>
@@ -5237,31 +5448,31 @@
       <c r="G18" s="154"/>
     </row>
     <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="268" t="s">
+      <c r="A19" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="269"/>
-      <c r="C19" s="269"/>
-      <c r="D19" s="269"/>
-      <c r="E19" s="269"/>
-      <c r="F19" s="269"/>
-      <c r="G19" s="270"/>
+      <c r="B19" s="270"/>
+      <c r="C19" s="270"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="271"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="155" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B20" s="156" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="156" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D20" s="156" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="156" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F20" s="156" t="s">
         <v>17</v>
@@ -5272,7 +5483,7 @@
     </row>
     <row r="21" spans="1:7" ht="106.5">
       <c r="A21" s="158" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B21" s="159">
         <v>0.7</v>
@@ -5291,12 +5502,12 @@
         <v>18</v>
       </c>
       <c r="G21" s="216" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30.75">
       <c r="A22" s="160" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B22" s="161">
         <v>1</v>
@@ -5312,15 +5523,15 @@
         <v>16</v>
       </c>
       <c r="F22" s="161" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G22" s="217" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30.75">
       <c r="A23" s="158" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B23" s="159">
         <v>1</v>
@@ -5336,15 +5547,15 @@
         <v>22.099999999999998</v>
       </c>
       <c r="F23" s="159" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G23" s="216" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="160" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B24" s="161">
         <v>0.9</v>
@@ -5360,15 +5571,15 @@
         <v>12.6</v>
       </c>
       <c r="F24" s="161" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G24" s="162" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="76.5">
       <c r="A25" s="158" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B25" s="159">
         <v>0.8</v>
@@ -5387,12 +5598,12 @@
         <v>18</v>
       </c>
       <c r="G25" s="216" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45.75">
       <c r="A26" s="160" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B26" s="161">
         <v>1</v>
@@ -5408,15 +5619,15 @@
         <v>6.8</v>
       </c>
       <c r="F26" s="161" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G26" s="217" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="163" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B27" s="164"/>
       <c r="C27" s="164"/>
@@ -5433,7 +5644,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="167" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B28" s="168" t="s">
         <v>14</v>
@@ -5443,7 +5654,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="169" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F28" s="169"/>
       <c r="G28" s="170" t="s">
@@ -5452,7 +5663,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="171" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B29" s="172">
         <v>0.3</v>
@@ -5466,15 +5677,15 @@
         <v>-3</v>
       </c>
       <c r="F29" s="172" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G29" s="174" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="175" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B30" s="176">
         <v>0</v>
@@ -5492,7 +5703,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="179" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B31" s="180">
         <v>0</v>
@@ -5509,31 +5720,31 @@
       <c r="G31" s="182"/>
     </row>
     <row r="32" spans="1:7" ht="23.25">
-      <c r="A32" s="261" t="s">
+      <c r="A32" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="262"/>
-      <c r="C32" s="262"/>
-      <c r="D32" s="262"/>
-      <c r="E32" s="262"/>
-      <c r="F32" s="262"/>
-      <c r="G32" s="263"/>
+      <c r="B32" s="263"/>
+      <c r="C32" s="263"/>
+      <c r="D32" s="263"/>
+      <c r="E32" s="263"/>
+      <c r="F32" s="263"/>
+      <c r="G32" s="264"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="183" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B33" s="184" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="184" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D33" s="184" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="184" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F33" s="184" t="s">
         <v>17</v>
@@ -5542,149 +5753,177 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="60.75">
       <c r="A34" s="186" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B34" s="187">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C34" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="187">
         <v>30</v>
       </c>
       <c r="E34" s="187">
         <f t="shared" ref="E34:E40" si="2">B34*C34*D34</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="187"/>
-      <c r="G34" s="188"/>
+        <v>24</v>
+      </c>
+      <c r="F34" s="187" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="219" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="189" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B35" s="190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="190">
         <v>12</v>
       </c>
       <c r="E35" s="190">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="190"/>
-      <c r="G35" s="191"/>
+        <v>12</v>
+      </c>
+      <c r="F35" s="190" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="191" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="186" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B36" s="187">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="C36" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="187">
         <v>8</v>
       </c>
       <c r="E36" s="187">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="187"/>
-      <c r="G36" s="188"/>
+        <v>6.8</v>
+      </c>
+      <c r="F36" s="187" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="219" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="189" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B37" s="190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="190">
         <v>14</v>
       </c>
       <c r="E37" s="190">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="190"/>
-      <c r="G37" s="191"/>
+        <v>14</v>
+      </c>
+      <c r="F37" s="190" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" s="191" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="186" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B38" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="187">
         <v>12</v>
       </c>
       <c r="E38" s="187">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="187"/>
-      <c r="G38" s="188"/>
+        <v>12</v>
+      </c>
+      <c r="F38" s="187" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="188" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="189" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B39" s="190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="190">
         <v>18</v>
       </c>
       <c r="E39" s="190">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="190"/>
-      <c r="G39" s="191"/>
+        <v>18</v>
+      </c>
+      <c r="F39" s="190" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="191" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="186" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B40" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="187">
         <v>6</v>
       </c>
       <c r="E40" s="187">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="187"/>
-      <c r="G40" s="188"/>
+        <v>6</v>
+      </c>
+      <c r="F40" s="187" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" s="188" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="192" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B41" s="193"/>
       <c r="C41" s="193"/>
@@ -5694,14 +5933,14 @@
       </c>
       <c r="E41" s="194">
         <f>(SUM(E34:E40) +E43+E44+E45)/D41</f>
-        <v>0</v>
+        <v>0.91299999999999992</v>
       </c>
       <c r="F41" s="194"/>
       <c r="G41" s="195"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="196" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B42" s="197" t="s">
         <v>14</v>
@@ -5711,7 +5950,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="198" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F42" s="198"/>
       <c r="G42" s="199" t="s">
@@ -5720,7 +5959,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="200" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B43" s="201">
         <v>0</v>
@@ -5738,7 +5977,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="204" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="B44" s="205">
         <v>0</v>
@@ -5756,10 +5995,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="208" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B45" s="209">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C45" s="209"/>
       <c r="D45" s="210">
@@ -5767,10 +6006,12 @@
       </c>
       <c r="E45" s="209">
         <f>B45*D45</f>
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="F45" s="209"/>
-      <c r="G45" s="211"/>
+      <c r="G45" s="211" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5799,21 +6040,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5945,8 +6171,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5954,5 +6195,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>